--- a/Unity/Assets/Config/Excel/RewardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RewardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23070" windowHeight="10080" tabRatio="809"/>
+    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="RewardConfig" sheetId="6" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/Unity/Assets/Config/Excel/RewardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RewardConfig.xlsx
@@ -53,7 +53,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>(map#sep=;|),int,int</t>
+    <t>(map#sep=;|),int,long</t>
   </si>
   <si>
     <t>##group</t>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/Unity/Assets/Config/Excel/RewardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RewardConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RewardConfig" sheetId="6" r:id="rId1"/>
+    <sheet name="任务奖励30001" sheetId="6" r:id="rId1"/>
+    <sheet name="签到奖励300001" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="138">
   <si>
     <t>##var</t>
   </si>
@@ -255,6 +256,192 @@
   </si>
   <si>
     <t>60001;10|60002;29</t>
+  </si>
+  <si>
+    <t>奖励包300001</t>
+  </si>
+  <si>
+    <t>签到第1天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300002</t>
+  </si>
+  <si>
+    <t>签到第2天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300003</t>
+  </si>
+  <si>
+    <t>签到第3天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300004</t>
+  </si>
+  <si>
+    <t>签到第4天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300005</t>
+  </si>
+  <si>
+    <t>签到第5天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300006</t>
+  </si>
+  <si>
+    <t>签到第6天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300007</t>
+  </si>
+  <si>
+    <t>签到第7天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300008</t>
+  </si>
+  <si>
+    <t>签到第8天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300009</t>
+  </si>
+  <si>
+    <t>签到第9天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300010</t>
+  </si>
+  <si>
+    <t>签到第10天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300011</t>
+  </si>
+  <si>
+    <t>签到第11天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300012</t>
+  </si>
+  <si>
+    <t>签到第12天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300013</t>
+  </si>
+  <si>
+    <t>签到第13天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300014</t>
+  </si>
+  <si>
+    <t>签到第14天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300015</t>
+  </si>
+  <si>
+    <t>签到第15天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300016</t>
+  </si>
+  <si>
+    <t>签到第16天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300017</t>
+  </si>
+  <si>
+    <t>签到第17天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300018</t>
+  </si>
+  <si>
+    <t>签到第18天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300019</t>
+  </si>
+  <si>
+    <t>签到第19天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300020</t>
+  </si>
+  <si>
+    <t>签到第20天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300021</t>
+  </si>
+  <si>
+    <t>签到第21天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300022</t>
+  </si>
+  <si>
+    <t>签到第22天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300023</t>
+  </si>
+  <si>
+    <t>签到第23天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300024</t>
+  </si>
+  <si>
+    <t>签到第24天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300025</t>
+  </si>
+  <si>
+    <t>签到第25天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300026</t>
+  </si>
+  <si>
+    <t>签到第26天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300027</t>
+  </si>
+  <si>
+    <t>签到第27天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300028</t>
+  </si>
+  <si>
+    <t>签到第28天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300029</t>
+  </si>
+  <si>
+    <t>签到第29天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300030</t>
+  </si>
+  <si>
+    <t>签到第30天奖励</t>
+  </si>
+  <si>
+    <t>奖励包300031</t>
+  </si>
+  <si>
+    <t>签到第31天奖励</t>
   </si>
 </sst>
 </file>
@@ -883,26 +1070,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1231,17 +1424,384 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="13.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="35.875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="9">
+        <v>30001</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="9">
+        <v>30002</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="9">
+        <v>30003</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="9">
+        <v>30004</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="9">
+        <v>30005</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="9">
+        <v>30006</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="9">
+        <v>30007</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="9">
+        <v>30008</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9">
+        <v>30009</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="9">
+        <v>30010</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="9">
+        <v>30011</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="9">
+        <v>30012</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="9">
+        <v>30013</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="9">
+        <v>30014</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9">
+        <v>30015</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9">
+        <v>30016</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9">
+        <v>30017</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9">
+        <v>30018</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="9">
+        <v>30019</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="9">
+        <v>30020</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1309,286 +1869,440 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="4">
-        <v>30001</v>
+        <v>300001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="4">
-        <v>30002</v>
+        <v>300002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>79</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="4">
-        <v>30003</v>
+        <v>300003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>81</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="4">
-        <v>30004</v>
+        <v>300004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="4">
-        <v>30005</v>
+        <v>300005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>85</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="4">
-        <v>30006</v>
+        <v>300006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="4">
-        <v>30007</v>
+        <v>300007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>89</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="4">
-        <v>30008</v>
+        <v>300008</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>91</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="4">
-        <v>30009</v>
+        <v>300009</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>93</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="4">
-        <v>30010</v>
+        <v>300010</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4">
-        <v>30011</v>
+        <v>300011</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>48</v>
+        <v>97</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="4">
-        <v>30012</v>
+        <v>300012</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>99</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="4">
-        <v>30013</v>
+        <v>300013</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>54</v>
+        <v>101</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="4">
-        <v>30014</v>
+        <v>300014</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="4">
-        <v>30015</v>
+        <v>300015</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>105</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="4">
-        <v>30016</v>
+        <v>300016</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>107</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="4">
-        <v>30017</v>
+        <v>300017</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>66</v>
+        <v>109</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="4">
-        <v>30018</v>
+        <v>300018</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>69</v>
+        <v>111</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="4">
-        <v>30019</v>
+        <v>300019</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="4">
-        <v>30020</v>
+        <v>300020</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>75</v>
+        <v>115</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="4">
+        <v>300021</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="4">
+        <v>300022</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="4">
+        <v>300023</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="4">
+        <v>300024</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="4">
+        <v>300025</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4">
+        <v>300026</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="4">
+        <v>300027</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="4">
+        <v>300028</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="4">
+        <v>300029</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="4">
+        <v>300030</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="4">
+        <v>300031</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/RewardConfig.xlsx
+++ b/Unity/Assets/Config/Excel/RewardConfig.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="25590" windowHeight="10740" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="任务奖励30001" sheetId="6" r:id="rId1"/>
     <sheet name="签到奖励300001" sheetId="7" r:id="rId2"/>
+    <sheet name="7日奖励310001" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -36,13 +37,10 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>#Desc</t>
   </si>
   <si>
-    <t>Reward</t>
+    <t>*Reward</t>
   </si>
   <si>
     <t>##type</t>
@@ -54,394 +52,196 @@
     <t>string</t>
   </si>
   <si>
-    <t>(map#sep=;|),int,long</t>
+    <t>list,GameItemBean</t>
   </si>
   <si>
     <t>##group</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
     <t>奖励包id</t>
   </si>
   <si>
-    <t>奖励包名字</t>
-  </si>
-  <si>
     <t>奖励包描述</t>
   </si>
   <si>
     <t>奖励包内容</t>
   </si>
   <si>
-    <t>奖励包30001</t>
-  </si>
-  <si>
     <t>奖励包30001描述</t>
   </si>
   <si>
-    <t>60001;10|60002;10</t>
-  </si>
-  <si>
-    <t>奖励包30002</t>
-  </si>
-  <si>
     <t>奖励包30002描述</t>
   </si>
   <si>
-    <t>60001;10|60002;11</t>
-  </si>
-  <si>
-    <t>奖励包30003</t>
-  </si>
-  <si>
     <t>奖励包30003描述</t>
   </si>
   <si>
-    <t>60001;10|60002;12</t>
-  </si>
-  <si>
-    <t>奖励包30004</t>
-  </si>
-  <si>
     <t>奖励包30004描述</t>
   </si>
   <si>
-    <t>60001;10|60002;13</t>
-  </si>
-  <si>
-    <t>奖励包30005</t>
-  </si>
-  <si>
     <t>奖励包30005描述</t>
   </si>
   <si>
-    <t>60001;10|60002;14</t>
-  </si>
-  <si>
-    <t>奖励包30006</t>
-  </si>
-  <si>
     <t>奖励包30006描述</t>
   </si>
   <si>
-    <t>60001;10|60002;15</t>
-  </si>
-  <si>
-    <t>奖励包30007</t>
-  </si>
-  <si>
     <t>奖励包30007描述</t>
   </si>
   <si>
-    <t>60001;10|60002;16</t>
-  </si>
-  <si>
-    <t>奖励包30008</t>
-  </si>
-  <si>
     <t>奖励包30008描述</t>
   </si>
   <si>
-    <t>60001;10|60002;17</t>
-  </si>
-  <si>
-    <t>奖励包30009</t>
-  </si>
-  <si>
     <t>奖励包30009描述</t>
   </si>
   <si>
-    <t>60001;10|60002;18</t>
-  </si>
-  <si>
-    <t>奖励包30010</t>
-  </si>
-  <si>
     <t>奖励包30010描述</t>
   </si>
   <si>
-    <t>60001;10|60002;19</t>
-  </si>
-  <si>
-    <t>奖励包30011</t>
-  </si>
-  <si>
     <t>奖励包30011描述</t>
   </si>
   <si>
-    <t>60001;10|60002;20</t>
-  </si>
-  <si>
-    <t>奖励包30012</t>
-  </si>
-  <si>
     <t>奖励包30012描述</t>
   </si>
   <si>
-    <t>60001;10|60002;21</t>
-  </si>
-  <si>
-    <t>奖励包30013</t>
-  </si>
-  <si>
     <t>奖励包30013描述</t>
   </si>
   <si>
-    <t>60001;10|60002;22</t>
-  </si>
-  <si>
-    <t>奖励包30014</t>
-  </si>
-  <si>
     <t>奖励包30014描述</t>
   </si>
   <si>
-    <t>60001;10|60002;23</t>
-  </si>
-  <si>
-    <t>奖励包30015</t>
-  </si>
-  <si>
     <t>奖励包30015描述</t>
   </si>
   <si>
-    <t>60001;10|60002;24</t>
-  </si>
-  <si>
-    <t>奖励包30016</t>
-  </si>
-  <si>
     <t>奖励包30016描述</t>
   </si>
   <si>
-    <t>60001;10|60002;25</t>
-  </si>
-  <si>
-    <t>奖励包30017</t>
-  </si>
-  <si>
     <t>奖励包30017描述</t>
   </si>
   <si>
-    <t>60001;10|60002;26</t>
-  </si>
-  <si>
-    <t>奖励包30018</t>
-  </si>
-  <si>
     <t>奖励包30018描述</t>
   </si>
   <si>
-    <t>60001;10|60002;27</t>
-  </si>
-  <si>
-    <t>奖励包30019</t>
-  </si>
-  <si>
     <t>奖励包30019描述</t>
   </si>
   <si>
-    <t>60001;10|60002;28</t>
-  </si>
-  <si>
-    <t>奖励包30020</t>
-  </si>
-  <si>
     <t>奖励包30020描述</t>
   </si>
   <si>
-    <t>60001;10|60002;29</t>
-  </si>
-  <si>
-    <t>奖励包300001</t>
-  </si>
-  <si>
     <t>签到第1天奖励</t>
   </si>
   <si>
-    <t>奖励包300002</t>
-  </si>
-  <si>
     <t>签到第2天奖励</t>
   </si>
   <si>
-    <t>奖励包300003</t>
-  </si>
-  <si>
     <t>签到第3天奖励</t>
   </si>
   <si>
-    <t>奖励包300004</t>
-  </si>
-  <si>
     <t>签到第4天奖励</t>
   </si>
   <si>
-    <t>奖励包300005</t>
-  </si>
-  <si>
     <t>签到第5天奖励</t>
   </si>
   <si>
-    <t>奖励包300006</t>
-  </si>
-  <si>
     <t>签到第6天奖励</t>
   </si>
   <si>
-    <t>奖励包300007</t>
-  </si>
-  <si>
     <t>签到第7天奖励</t>
   </si>
   <si>
-    <t>奖励包300008</t>
-  </si>
-  <si>
     <t>签到第8天奖励</t>
   </si>
   <si>
-    <t>奖励包300009</t>
-  </si>
-  <si>
     <t>签到第9天奖励</t>
   </si>
   <si>
-    <t>奖励包300010</t>
-  </si>
-  <si>
     <t>签到第10天奖励</t>
   </si>
   <si>
-    <t>奖励包300011</t>
-  </si>
-  <si>
     <t>签到第11天奖励</t>
   </si>
   <si>
-    <t>奖励包300012</t>
-  </si>
-  <si>
     <t>签到第12天奖励</t>
   </si>
   <si>
-    <t>奖励包300013</t>
-  </si>
-  <si>
     <t>签到第13天奖励</t>
   </si>
   <si>
-    <t>奖励包300014</t>
-  </si>
-  <si>
     <t>签到第14天奖励</t>
   </si>
   <si>
-    <t>奖励包300015</t>
-  </si>
-  <si>
     <t>签到第15天奖励</t>
   </si>
   <si>
-    <t>奖励包300016</t>
-  </si>
-  <si>
     <t>签到第16天奖励</t>
   </si>
   <si>
-    <t>奖励包300017</t>
-  </si>
-  <si>
     <t>签到第17天奖励</t>
   </si>
   <si>
-    <t>奖励包300018</t>
-  </si>
-  <si>
     <t>签到第18天奖励</t>
   </si>
   <si>
-    <t>奖励包300019</t>
-  </si>
-  <si>
     <t>签到第19天奖励</t>
   </si>
   <si>
-    <t>奖励包300020</t>
-  </si>
-  <si>
     <t>签到第20天奖励</t>
   </si>
   <si>
-    <t>奖励包300021</t>
-  </si>
-  <si>
     <t>签到第21天奖励</t>
   </si>
   <si>
-    <t>奖励包300022</t>
-  </si>
-  <si>
     <t>签到第22天奖励</t>
   </si>
   <si>
-    <t>奖励包300023</t>
-  </si>
-  <si>
     <t>签到第23天奖励</t>
   </si>
   <si>
-    <t>奖励包300024</t>
-  </si>
-  <si>
     <t>签到第24天奖励</t>
   </si>
   <si>
-    <t>奖励包300025</t>
-  </si>
-  <si>
     <t>签到第25天奖励</t>
   </si>
   <si>
-    <t>奖励包300026</t>
-  </si>
-  <si>
     <t>签到第26天奖励</t>
   </si>
   <si>
-    <t>奖励包300027</t>
-  </si>
-  <si>
     <t>签到第27天奖励</t>
   </si>
   <si>
-    <t>奖励包300028</t>
-  </si>
-  <si>
     <t>签到第28天奖励</t>
   </si>
   <si>
-    <t>奖励包300029</t>
-  </si>
-  <si>
     <t>签到第29天奖励</t>
   </si>
   <si>
-    <t>奖励包300030</t>
-  </si>
-  <si>
     <t>签到第30天奖励</t>
   </si>
   <si>
-    <t>奖励包300031</t>
-  </si>
-  <si>
     <t>签到第31天奖励</t>
+  </si>
+  <si>
+    <t>7日奖励第1天</t>
+  </si>
+  <si>
+    <t>7日奖励第2天</t>
+  </si>
+  <si>
+    <t>7日奖励第3天</t>
+  </si>
+  <si>
+    <t>7日奖励第4天</t>
+  </si>
+  <si>
+    <t>7日奖励第5天</t>
+  </si>
+  <si>
+    <t>7日奖励第6天</t>
+  </si>
+  <si>
+    <t>7日奖励第7天</t>
   </si>
 </sst>
 </file>
@@ -1070,32 +870,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1422,365 +1251,371 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="13.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="13.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" s="15" customFormat="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" s="16" customFormat="1" spans="1:5">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" s="14" customFormat="1" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="13">
+        <v>30001</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="13">
+        <v>60002</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="13">
+        <v>30002</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D7" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E7" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="13">
+        <v>30003</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="9">
-        <v>30001</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="D8" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E8" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="13">
+        <v>30004</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D9" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E9" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="13">
+        <v>30005</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="D10" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E10" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="13">
+        <v>30006</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="9">
-        <v>30002</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D11" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E11" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="13">
+        <v>30007</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D12" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E12" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="13">
+        <v>30008</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="D13" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E13" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="13">
+        <v>30009</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="9">
-        <v>30003</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D14" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E14" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="13">
+        <v>30010</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D15" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E15" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="13">
+        <v>30011</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D16" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E16" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="13">
+        <v>30012</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="9">
-        <v>30004</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="D17" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E17" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="13">
+        <v>30013</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D18" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E18" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="13">
+        <v>30014</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="D19" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E19" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="13">
+        <v>30015</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="9">
-        <v>30005</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="D20" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E20" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="13">
+        <v>30016</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D21" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E21" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="13">
+        <v>30017</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="D22" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E22" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="13">
+        <v>30018</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="9">
-        <v>30006</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D23" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E23" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="13">
+        <v>30019</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D24" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E24" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="13">
+        <v>30020</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="9">
-        <v>30007</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="9">
-        <v>30008</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="9">
-        <v>30009</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="9">
-        <v>30010</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="9">
-        <v>30011</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="9">
-        <v>30012</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="9">
-        <v>30013</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="9">
-        <v>30014</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="9">
-        <v>30015</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="9">
-        <v>30016</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="9">
-        <v>30017</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="9">
-        <v>30018</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="9">
-        <v>30019</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="9">
-        <v>30020</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>75</v>
+      <c r="D25" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E25" s="17">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1791,517 +1626,696 @@
   <sheetPr/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="11">
+        <v>300001</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E5" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="11">
+        <v>300002</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="11">
+        <v>300003</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E7" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="11">
+        <v>300004</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="11">
+        <v>300005</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E9" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="11">
+        <v>300006</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E10" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="11">
+        <v>300007</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="11">
+        <v>300008</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="11">
+        <v>300009</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E13" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="11">
+        <v>300010</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E14" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="11">
+        <v>300011</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E15" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="11">
+        <v>300012</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E16" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="11">
+        <v>300013</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E17" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="11">
+        <v>300014</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E18" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="11">
+        <v>300015</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="11">
+        <v>300016</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E20" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="11">
+        <v>300017</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E21" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="11">
+        <v>300018</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E22" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="11">
+        <v>300019</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E23" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="11">
+        <v>300020</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E24" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="11">
+        <v>300021</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E25" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="11">
+        <v>300022</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E26" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="11">
+        <v>300023</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E27" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="11">
+        <v>300024</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E28" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="11">
+        <v>300025</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E29" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="11">
+        <v>300026</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E30" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="11">
+        <v>300027</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E31" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="11">
+        <v>300028</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E32" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="11">
+        <v>300029</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E33" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="11">
+        <v>300030</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E34" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="11">
+        <v>300031</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="13">
+        <v>60001</v>
+      </c>
+      <c r="E35" s="12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="4">
-        <v>300001</v>
+        <v>310001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="D5" s="4">
+        <v>60001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="4">
-        <v>300002</v>
+        <v>310002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="D6" s="4">
+        <v>60001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="4">
-        <v>300003</v>
+        <v>310003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="D7" s="4">
+        <v>60001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="4">
-        <v>300004</v>
+        <v>310004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="4">
-        <v>300005</v>
+        <v>310005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="D9" s="4">
+        <v>60001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="4">
-        <v>300006</v>
+        <v>310006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="D10" s="4">
+        <v>60001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="4">
-        <v>300007</v>
+        <v>310007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="4">
-        <v>300008</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="4">
-        <v>300009</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="4">
-        <v>300010</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="4">
-        <v>300011</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="4">
-        <v>300012</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="4">
-        <v>300013</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="4">
-        <v>300014</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="4">
-        <v>300015</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="4">
-        <v>300016</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="4">
-        <v>300017</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="4">
-        <v>300018</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="4">
-        <v>300019</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="4">
-        <v>300020</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="4">
-        <v>300021</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="4">
-        <v>300022</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="4">
-        <v>300023</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="4">
-        <v>300024</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="4">
-        <v>300025</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="4">
-        <v>300026</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="4">
-        <v>300027</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="4">
-        <v>300028</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="4">
-        <v>300029</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="4">
-        <v>300030</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="4">
-        <v>300031</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="D11" s="4">
+        <v>60001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
